--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/58_Mersin_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/58_Mersin_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{86C3B39C-0D40-4D5B-BD2E-C34249A7FF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DF4EAE1-F0A3-4C8E-A1AC-A2935C129E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CB693E3F-96E8-456B-AA8F-0B6E3B2EA6FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BD1A639A-F59B-4ED6-8AD2-127B3F1DBF46}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{71517916-EFDA-4289-8480-4F18A16C71C3}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{7EC91047-528A-42D2-8F51-EC6E600AAEF4}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{00CD9B24-FB44-435E-BCFB-D326B962A13E}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{82CC7FAE-67D2-49FC-AE2C-264A31CAF009}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{BFE56EF7-9C39-4C45-A1CA-22F24E7CB191}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{A4F2D305-20CC-482B-B12E-975D9E6A71F2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{5F849580-E88C-4840-B211-B700C992A9DA}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{3535BE87-0450-4912-88D3-89AE840E7095}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FA5569A-D6D4-4D1E-8D10-F0FB7CDA745A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02206627-8E2D-40A1-ABF4-34E67E2E3F59}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -2480,18 +2480,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{25C9697A-367F-4A9C-8627-267FC441D07C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8A5AC542-70CF-46A5-AD2E-36F2272C2263}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{552E439E-E10A-4A42-A7CD-B3ED9C161981}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{38FE6BBE-08A9-4293-AACA-7F59F9353444}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{CD770BA7-8D5B-429E-B414-C954621C5D35}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B2C1324A-CA86-419A-9BF3-8E70A42A8BE6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{61906D48-094E-4869-B9E4-B3CA86A3BB01}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{A10A752C-2235-40BD-9853-FFC829F68D67}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E8CAA202-E4E3-4B17-A498-26137845AE35}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{61C9FFEA-9CB0-4F1C-8BFB-12D8A2456938}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{6EAA8941-9323-4871-9730-9D8377DE8A29}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F204EB47-6936-40C3-B9D0-4AC766D280F8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7FE06A93-AC18-4633-A4D0-075A4582BB2E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E4128DAA-1F37-466D-BA38-395663E48E62}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{68EC5C00-E33E-41A3-A93B-58FD72D48C1F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DACD923C-13EC-48E4-9418-8FC4A570EF60}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{804755F1-34CC-4279-BFE1-C9251BE08B2D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{037FD4C8-8A99-432F-A0E7-1E62F006232C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7661553B-AECF-4ABC-89AB-5D2A9630B9E9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{701D5C04-33F2-4E2A-9705-E74CEF04E34A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{03975E05-270E-45DA-9289-51694A65E1B9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{00776B97-6E52-4250-A28A-ADDE1E8304AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0B6C0BD3-7A87-42E8-806A-E1CD81EC4CEA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EB72BA6F-A541-4018-A728-8E66BA98DC65}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2504,7 +2504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{417C6D19-AC2F-425D-A12A-31A32B31E384}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C96E0613-F1BA-482D-AC41-4DD90EE09017}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -3732,18 +3732,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B882043F-B23C-45D7-972F-D74975CBF4EF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{25C0A91D-D18C-45F5-834B-F3A9EC3353D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C43B6838-AD93-4796-8C36-22F896A801CC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A7D7EC59-9E1A-4625-9068-880B2BC40D9C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8DEF07E4-A5C2-43D1-97D0-B2D866770A3A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{4886B1E9-394A-4C71-AB83-BCAE989B619E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{29FF0C66-F62D-4B32-B4E2-1A444557E49F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8793B055-3962-4EC4-AC95-C26D68C724EC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{749C8C11-0CE7-4573-9D53-64A071AD5109}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{DFD793BD-9975-4B75-A65C-7C2FD7D2F3C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{18FDDBF5-EA3D-44CF-B038-FF9C9C806765}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{9A47EB13-30E2-46E4-A9F1-D3899055FF64}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F9FE0D44-F36B-4BAE-A956-A3D04CA11378}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{337860B8-ADBE-4451-84DC-12E0C11DBB41}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{046E0B49-1A50-403C-821C-E27B8A343EB9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{EC4F35F2-67DF-470F-B440-BC4486A01F13}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{100CD7B2-988D-43A9-AF5F-047590CC81D9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{07A43F53-7C23-4EB6-AA3F-D32A16B33647}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{22FC1449-92BE-40B1-9C12-A06D531B3970}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{12C25DE4-7E12-4F86-9047-5C740B98CB1F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{48E454C5-EAC1-4A43-B415-6A57CF7DE10C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{6AB85C54-B5C7-4DC3-82DB-FA1B1C34D761}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B03842F2-42DE-4F2A-8AA2-48B7ABBF2690}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{09BF6F15-14FA-4088-9059-A0F38C567F1B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3756,7 +3756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7470D35B-78E0-47B3-84D1-F810B642021B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E83BECF-8109-4B39-B0FA-51284517B30E}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -4980,18 +4980,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{F3DF7DAC-70C2-492B-A44D-8122EAE9B7E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F75AB195-84EE-4AD7-9B8D-84371EE08F7E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3ECF4229-2DC7-4203-A27F-95DE775FB8AD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B85DDED1-2A94-4C7E-9F55-3AEC023E8587}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{07854ADF-F9FD-4C38-A7B8-23B2E4D9859E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{42CB409F-4FB2-46CB-9EAA-03DACCBE8198}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0B1F5D09-DC13-409F-854D-608DBF4C1E13}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8F33F4BB-CB4D-4E6B-95FD-A0C4499387F1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{34AC20DE-A845-4C6B-8BDE-C6F0FAE47DA9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E823F262-D4BC-4413-8DD5-C1799B3875A8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B8E57CED-978B-4E8B-A7C2-34AEC3763540}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{15B6D13A-DD2E-4EE5-9FF0-6F63BA0BB000}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{546566E6-C628-455E-9901-3B3D6D1EC7EA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D284FC6B-1B88-4011-97EF-7D8BB394E7E2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{73276464-245D-4FFE-83FA-B31A39B39D36}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C5B98ACA-A590-459D-81ED-C9B43115DF71}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B128FEB5-834D-480C-9BF0-196C8C65A2F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{AFB635F0-DA63-4A88-A8AF-BA0D066096C4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FD4A2B27-3758-4B01-B679-5BA9012EA0C3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5AEF7405-D5A2-47A7-8DB9-FDF6D382631A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1BE3DEF2-6876-4341-8ACE-D4BB486DAF98}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{97C9FFE5-E0A9-4BC2-8976-6F434F522A2C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{E3823B10-3559-4CB6-9AB3-FECB202FDAF2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CFC534B5-B5AC-43F0-B02F-5045A2445CC6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5004,7 +5004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95A0F121-4AEE-431F-AF49-E8FCBCA1CCAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B86085-6BE2-484C-B1D0-CD7C7200735F}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -6218,18 +6218,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BC1D194E-89F7-4B01-B6CC-9110F13BA776}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0710F725-94EF-4333-960C-43B3972F16DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E8F4CBD3-0E41-4A79-A1EF-6C19D833D89E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{65469C65-DF44-45B1-94AE-BD468D66F838}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{A5025829-C28F-47C0-B3F5-0909D91A65AE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2B8B7CD7-A523-4642-A4EB-4DD9996F2206}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2695A326-06BF-4620-84A5-057649A75FE3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0531EB40-B5BE-404F-8E66-8B416E9DDE77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FFC802E2-0216-4F9C-9F10-0D0306CF016C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B9A462B8-B90B-4B2E-B678-D32297DA0FDD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C9416DAD-D04C-46B8-AFCE-31E013255C89}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FB4B24D8-8A62-454A-ABE4-8D8B0DB97402}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B4192C8B-A490-4294-95CA-E28E9DC55715}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B5CDFA61-AD29-4587-8BA0-8597D0E4FBC6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E46BC5CE-1421-4C5F-917C-B8AA639A2B22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F59C7200-615D-44FE-BE96-28F68090C2D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0E2D29C0-095C-4F92-B882-E136D76E043E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B214092B-F58E-4B66-8CC9-3571BE40627B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{435F8DDE-218A-457B-82C9-81379B300537}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{BDC29946-F55B-41A1-AB0F-73B080F61549}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1517B1F6-0DB9-4B38-9EAC-A0E7ED65C0A9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{19CF69F9-982B-4086-BA94-6F5F04AA662A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{89E1625B-AC9D-44C8-B7B3-2AC862EC3694}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7D64F29A-4B9C-44E0-A45E-435A6F0CBB9A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6242,7 +6242,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{473BCE33-F104-4AB6-922D-6320E0BE26F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF8DEB8-6314-4E2E-8F5D-291D280649C9}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -7494,18 +7494,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{0512AB19-99CA-4F06-A1C1-F0430573E18C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2BF5CDD0-DE5F-43CF-8E80-DF4BABFA52CD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1838B454-30EA-4AD1-B53F-75E924C516E1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9EC3B72D-0993-4373-87E1-43673777A43D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F69998F5-87B5-4E1A-8DD4-D23FFB3CD156}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{33949A48-7850-4EAB-A5AA-919C7F1BCF0A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A0F4B76A-8AA8-4327-B3A6-698AC53592EA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D53A3EAC-D3C3-481C-AC43-DD5B110D14CB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DF4663F0-7A13-4294-8DC1-C68FA6A81893}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BC3CA901-003B-4771-A8B9-A18CC888ABBB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{60F51E00-6E94-4C2B-9525-B9ECFD202EEB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{89BFB44D-2382-417C-B9AA-65C990A56559}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2D04EFE4-04D6-4A81-A172-5F5D50875000}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4530FFA5-69E4-4F34-A434-BACA03C25372}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{003D56B0-A9B6-4D79-B1C9-573D67692D08}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{87AFA179-67B0-4D55-9045-343A83698B07}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2CE112B7-D5B3-4177-9338-EE0B49862527}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8A110621-6848-4FA0-9C4B-8A02A4E8F084}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{069BDD6B-10D3-4CA6-A582-53D2BB208DA1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{4F6F45A0-4AD4-43A7-B1E5-0D19D3BF6B59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1E8C6109-C981-4F0A-8B73-C8318A39C332}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{08BF075B-0387-43DE-B149-EDF6A4F78CCB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{193FF249-2145-4654-AC09-9F3F002FCA26}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A7AA3E09-8723-41AE-AD73-12414EEC07ED}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7518,7 +7518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FBA93B-E584-4B86-B1AA-A29040C4430B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53E2B1F-06DC-4360-B1B5-EFA64C7CBE23}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -8766,18 +8766,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C43A4FE0-76E1-4255-8EB0-0497829C6142}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{D05813EE-6F8D-4ABB-821A-B99929A0AD1C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{02E62AA8-249C-420F-B19D-BDDEB0A5ABF8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4333E22F-1DA0-4192-A382-02ACF124F23A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4A01932E-2B7F-4AAC-B620-D3B1C93915EB}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{6E729FE2-9D16-4492-BD84-A22B651856D7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{361FC783-09C5-40BE-8362-BB9CA4E04026}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{038D9355-D701-45E2-9A56-C5E0B014D65E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{386EEF66-520B-450B-95F5-CCFD938D1F7E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{61682BC7-4F76-48F4-A634-D6B33DA4FB8C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{C91C1041-1C91-43F4-99F2-9CD0C9CB3C1B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{003A5808-72C9-4993-A307-24EC30D19E92}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{71E7FBB6-9ED9-4DDC-9AC3-74BB3F6BAB15}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3504DEC9-103F-4068-BA43-70342400BF75}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9F56389D-5107-41FF-B0E2-FCA7961A6D5F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D5628F32-C117-4737-9B43-E408737ACA49}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5D4368CD-EF99-4D0B-8D55-ACB7A9B61B5A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0972A724-43A6-4EEE-9809-8B7AA8A28318}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F5110283-5C59-41CE-A0D3-D0780059001B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0EBDE7E9-6FC6-4753-B0D9-E8E618CF09D0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7C5EEF33-837B-46D6-B83A-A368818F69C3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FEC35E34-7F8E-45D4-9226-DF4B5F579912}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CE87DF12-30B0-4198-8FCB-EB92303C5AE8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{157D2083-9DA7-41C1-8686-656F0CA5B139}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8790,7 +8790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C280D412-DE5D-4720-A4AA-EF30C2E27B68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC6639D3-D839-48E6-B086-FCEEF13572B9}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -10040,18 +10040,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{834B5C86-DA4B-4E71-8BC0-4BE03FD54604}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9DA932B2-5A1E-4D72-973E-5AD61AB66721}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4FC18AD2-FE40-4F34-8E56-EB4FBFC3FA00}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{699252AB-3B78-48BF-AFA3-6A0804479B54}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{97C4B106-B89A-4303-AF85-65EBBB63370C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0ABE5715-0F87-4926-A79A-A1FF3A4C2674}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{15FBCC3A-5E07-45BC-8697-D805E1D59F2C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC99DA28-46B7-40DC-9A36-93591CBD5388}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C18C683A-18CD-4771-92DB-614BE21BE86F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3F93752A-0125-436C-B63D-838B1AEC1F60}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DF02EBAE-F994-4758-849F-0A1D455119D5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{3E67C3F0-0F06-401A-BB2E-48550DB0C209}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C2A53ED1-8B9C-4E23-A573-9612990A8727}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DD5B6F0F-8BC4-402C-A745-E6BD0AE2D48B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{74169E93-59BB-4CDE-B2EA-7937ADE71B66}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{470D1973-2A26-410B-8416-BAA7E6E9C4BA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{7886966F-EA0E-4D4C-A6A1-6D8753F1DDE2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{987086C6-B88C-4108-9A80-FADA8C599E49}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{10020735-953E-4B43-8E10-690EE4729897}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6D16B6CE-3468-4734-AF6F-18EE3DDED2EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E5C4DF36-99E8-4CB2-96C0-2DADB67655E4}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{34B9F899-7DD8-41E6-9933-FC3A9339995C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D7368DD1-0A88-499F-B595-043B5A8F3DB5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{759D27F2-488A-4F89-A702-C7D5A4BAD7CD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10064,7 +10064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9289F5BE-9787-4D8D-AC71-372AF6F2575C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{212A51CC-ECBF-40B6-9702-2BFA4EB2AFAC}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -11308,18 +11308,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D9008CF4-2414-4C47-91D3-1DF5B4A4FC0A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{802D5715-939A-4A62-9D3E-B979CF9BBDCE}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8375357F-8B87-4BF9-BA94-E036AB55BAAE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{09EA8F86-518C-46B7-BCAE-4DB95DE5364F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F849E776-08FD-418A-A09A-E9A398E78CF9}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{53502C98-8280-4895-884B-1D88CE831FDF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8BB637CC-09C5-416B-BAD2-EAA014723328}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{157C5B54-EE73-489D-8DC1-53381C64A873}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{610994FE-DC0E-4130-9278-D1DD72EE9567}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3C793E07-540E-4013-BE74-30D30020E6DB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{ABE1C20E-773F-41B6-A429-E4B2D57B4428}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EF01DEF0-CF08-4782-8B70-6CEA588F25BF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2DBE43CB-D8A0-45A5-A78E-9A28A1EF4BDB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{85DFAB44-16E0-4A83-9500-1D009C8CA7F6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D1B3C4BC-BECA-4DA0-B7B1-846E7F4D86D8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{B00EEB11-3A5F-47C4-AF65-79825C22A035}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{711ABD20-D16E-4A41-AF11-1BF7E06C01FA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0A34B13C-AF1D-4ADE-86A3-2CF7FFDE9DBB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{7CCA5600-0F1D-45FE-BD50-5357913A7F08}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5AE5247B-5D4C-4A19-B509-2D4FBCDA3996}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{386516C0-A281-44EF-B5AE-6ACD27F58242}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D0BA8931-065E-4058-ABE5-3EFBE777821E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{81F9BDB4-7E8A-465B-93BD-E1ACE1A36DDF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{82BC7908-8B1B-410A-8903-70EF99E57F6E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11332,7 +11332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E30CD02-26DB-4E02-A565-074EBEA52793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C38BD339-8D0F-46B2-BE44-D3B855D70CF7}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -12576,18 +12576,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{CDAFAE68-2FF1-451B-8AF6-BED53AFB9AAF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{40C65254-DD5C-46C0-9FAE-02E1D799912D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C784D09F-8B37-4585-8318-3811E7880736}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1A5079DB-AE8F-452C-B8BE-0F332D7998C5}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{74B0FCF9-F504-4A85-9B48-6695FAB7B692}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E0328EFD-F725-448C-897E-942131F82E45}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{719D7A4B-9104-47E1-81A4-A4E54DBDA2CA}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0C5525B2-A1FE-41CF-9DD7-74A6DAD154FC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{29931BA1-FD5E-4A68-B7ED-1A014EDB3FD3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B34A4A1D-38C9-4C83-9C0A-5459CF4B0DAA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{11E28173-0D39-4909-8854-47B9A3A8E3DD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6599C6BA-F931-4EE6-9FBC-AB9828E049EF}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{819EF313-AB7C-41E6-B6C9-CB378197E68E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{53B36D91-1394-4681-934A-998BCBA79151}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8634E84B-2639-40C4-AE08-2FD986F90CD8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CBA7640E-18AC-4DDB-91FF-C7FA8A35515E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3011B4CF-EC74-45F7-8CD4-8F9E18EFDA22}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{73EE2F16-0AE4-4ACE-AA1A-7B910FBCBF7B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BF7FDACC-CD08-4403-BE32-2775B03F281C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2ACAAEFD-D72E-4369-AAB0-DCE4F6E3431C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{64348EC6-45DC-466E-8DD4-C1FA0AC2A432}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{807DE238-5216-4821-BEF8-71849A32E9F0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DE2249C5-F1A4-4DC8-9B53-8634648333CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6F47388B-5CA6-49A8-9A9E-8BE588F2F50D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12600,7 +12600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2D86EF-1C1B-4501-9793-AC41987115E8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D3C74D2-D4DA-4EDA-8822-08E9BE4B2082}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -13838,18 +13838,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2159D9C8-01FF-45F6-9A74-2405693471A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{609BDB6A-9F82-444D-99AC-4EBFE2AD36A9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{02B363A7-0E05-43B5-94E2-3CA5D45023DA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C2CA5BC8-E788-44F0-901D-B8ABF6296403}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3D80529F-F6A6-42D8-A445-A93B72C20EA8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0BEB9632-86BB-43F2-B38C-579BF9488E5C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{261FD0A7-5817-45C6-ADE3-39C6455BF780}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{DA716676-4E21-4F6A-87C1-E12E4326509E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A8B377AC-5FAE-4353-A361-6CC5231984DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{40C122FA-4EF7-4065-BC95-4E425C8D7FCD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{508D6619-E694-4090-B095-23C4FCF2226A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{E4CABB8E-E2FE-4708-A818-C1C9A0891461}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6BA0F8D2-5177-4ED1-93EE-6F5F0E91049B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BD89CEEC-2874-48CB-AFD3-D86770E9E444}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{8849558E-6F98-4DFD-B38F-142EE0E516CB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1104C452-B39A-4923-9E9C-57D7F133A647}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{008D0B61-BED9-4D7B-B2D0-990D6BD47F93}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EF3BFC80-02D2-4767-904A-A42043089F38}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{682EAD90-F24A-4F1A-9903-AD0680195AED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{013CC8FB-3B56-4885-9FB4-52B913ED2F61}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EC4285AB-F709-43D2-A8A8-2FA372A43354}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{302685A9-454E-4511-8BCC-708CACDD21BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8CD28AE0-4FF9-4C83-A665-6827F345A958}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{67DF7514-61D9-49D5-A919-5999E4ABC18F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13862,7 +13862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC3C5548-2460-4173-9971-4092EF7AE1BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8071DC-5CFF-473B-A2F4-2AC5DE4765DB}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -15100,18 +15100,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C4B200A0-070B-42D3-8602-92DB933A1855}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{097B1EA9-1413-416C-B0B1-8B70D02096C6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{B2C7C7A4-CC11-4556-BAB8-3A650ACEBA27}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{37112BF9-C9C2-4E04-85C6-F1A4895E6A20}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{01FB76B5-82A8-4647-B289-92D90CE5F6A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3EDB45A6-3B8C-4DFE-9FBA-E1581C0ADB7D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{94D7EB31-3F57-4AA9-A8A7-0386F613A1E8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B1503AA6-011A-4B69-93D2-54EF5DDA1D39}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{6186C745-DA02-4053-B530-A09A1A355747}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5EC00B58-475D-4621-B9CB-CEB40136CD9F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7CDDB03E-9A91-40C0-BC36-A77EAC405C3B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{03AC97E8-70D9-4F1C-939D-77EB67EAA200}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{41F99F2F-3B9E-45D5-8219-CF5A90998088}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{7C53F562-46BB-453E-A8F8-2E00601BBEC9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{20A487FC-A423-4DE9-9F67-D24584B189D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{9DA74257-ABDB-4FA4-8D41-44E0F67716B6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{212147D0-BDF4-4205-A547-AF9266A55E1B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2E269F27-9383-4170-A688-AF70FADB4D45}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{37413799-3A5A-4AC1-821C-0F0F0B2CC334}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{67E9CDBB-7843-4314-9FA6-5B486F1F6F9E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4B1AECB8-15FA-4D85-B94E-D2962D193EAF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{29E3F14D-3BC9-445F-9BC2-E8ECC3DE9C32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{90AD9A86-EE92-4AB9-8E58-97E4A6A1AF6E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{089C5CCE-A4E5-4125-8091-ECF5F5030933}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15124,7 +15124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D664C619-72DA-4E6B-BDC0-3E4F76DF2532}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B92FD5E-B0CB-4571-838E-3DFA4E04D7A0}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B1:F98"/>
   <sheetViews>
@@ -16358,18 +16358,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6BB4CB46-AEFD-4614-B222-B467CBA93426}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E5ED5FAC-949E-4C15-99F4-D3C326F55DB6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AD1D3B4E-1100-4A5F-80FB-E301A2BDA294}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{85496AE1-9FC9-4FD8-8AAA-778A61A730C4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F0418F08-6EAA-41A2-A92A-33DFD7081A52}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{73176FDA-8C97-4DA5-9B3E-2913B264D964}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{29C099CC-76CE-41F9-AF6B-3F859E289108}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8858F2A9-DDCB-4B01-B43C-C5644B479417}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{BA98DBBD-9B02-4CFE-9BF5-6DFF5D531F1C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F5958AC8-DFC0-4FEF-AB37-9776EABF5BF6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EA90FECB-AB5E-4DA2-95D0-A6DF4C54D2BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1CFB8D0F-53DC-4F8E-BEA5-200D6C98513A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{163B1A9C-14FB-477D-9632-9C24223E8EA5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F08B4095-0F8F-4FB1-BF03-4DA6E53D0D34}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{06AB2038-4A84-457C-8376-2E32B6C9DFE4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2199EEC2-B2A6-4433-8FE4-8D7629263AB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{15B457E8-A5DC-4798-932F-50614AB58E86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9B63CD5C-90A2-4A88-B09A-87567D5419C2}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CD7D9FC1-0AA8-4C72-A4E7-2EC3AD09BC57}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8A9F7D44-8DD0-4A1F-B766-E2BDE7A2BAC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{871A5481-965F-457F-B264-5290CF0B13CA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7D2AE5A1-8CD1-49F4-9D1D-E7DE3E3F55DA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{767383C0-90A8-4D8D-A1CE-08C5F8D195B8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB4253D1-E843-4317-9F96-318E4AAA6E05}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
